--- a/RADIO MENU CREATOR v1.3.xlsx
+++ b/RADIO MENU CREATOR v1.3.xlsx
@@ -153,7 +153,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -257,15 +257,8 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="21"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF757575"/>
+      <color rgb="FF616161"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -303,6 +296,41 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="21"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="21"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFAFAFA"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
+      <color rgb="FFFAFAFA"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
+      <color rgb="FF448AFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -326,7 +354,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0E0E0"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFFAFAFA"/>
       </patternFill>
     </fill>
   </fills>
@@ -411,7 +439,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -439,7 +467,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -447,7 +475,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -475,7 +503,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -499,11 +527,11 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFAFAFA"/>
       <rgbColor rgb="FFF50057"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFEA00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -513,7 +541,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBDBDBD"/>
-      <rgbColor rgb="FF757575"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFF9C4"/>
@@ -524,7 +552,7 @@
       <rgbColor rgb="FFE0E0E0"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFEA00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -538,13 +566,13 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF448AFF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF616161"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF339966"/>
@@ -570,9 +598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>618120</xdr:colOff>
+      <xdr:colOff>617400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -582,7 +610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5218560" y="262800"/>
-          <a:ext cx="1571760" cy="1652760"/>
+          <a:ext cx="1571040" cy="1652040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,28 +631,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>747360</xdr:colOff>
+      <xdr:colOff>11453760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4939200</xdr:colOff>
+      <xdr:colOff>12890880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>453600</xdr:rowOff>
+      <xdr:rowOff>638280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Text Frame 1"/>
+        <xdr:cNvPr id="1" name="Text Frame 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7638480" y="158400"/>
-          <a:ext cx="4191840" cy="295200"/>
+          <a:off x="18344880" y="122760"/>
+          <a:ext cx="1437120" cy="515520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -651,66 +679,24 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="el-GR" sz="2100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="el-GR" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="616161"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
               <a:ea typeface="Microsoft YaHei"/>
             </a:rPr>
-            <a:t>RADIO MENU CREATOR ver 1.3</a:t>
+            <a:t>Copyright 2024 ©</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="el-GR" sz="2100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="el-GR" sz="1100" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="616161"/>
+            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11145960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>226080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>13431600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>450000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Frame 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18037080" y="226080"/>
-          <a:ext cx="2285640" cy="223920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
         <a:p>
-          <a:pPr algn="r">
+          <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -718,14 +704,40 @@
           <a:r>
             <a:rPr b="1" lang="el-GR" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="757575"/>
+                <a:srgbClr val="616161"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
               <a:ea typeface="Microsoft YaHei"/>
             </a:rPr>
-            <a:t>Copyright 2024© by =GR= Astr0</a:t>
+            <a:t>by</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="el-GR" sz="1100" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="616161"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="el-GR" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="616161"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Microsoft YaHei"/>
+            </a:rPr>
+            <a:t>=GR= Astr0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="el-GR" sz="1100" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="616161"/>
+            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -742,19 +754,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
+      <xdr:colOff>597600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Frame 3"/>
+        <xdr:cNvPr id="2" name="Text Frame 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5345640" y="357480"/>
-          <a:ext cx="1424880" cy="1447200"/>
+          <a:ext cx="1424160" cy="1446480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -925,25 +937,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5117400</xdr:colOff>
+      <xdr:colOff>4537440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>554400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7299000</xdr:colOff>
+      <xdr:colOff>8901720</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Frame 4"/>
+        <xdr:cNvPr id="3" name="Text Frame 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12008520" y="554400"/>
-          <a:ext cx="2181600" cy="195480"/>
+          <a:off x="11428560" y="554400"/>
+          <a:ext cx="4364280" cy="194760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,9 +991,288 @@
               <a:latin typeface="Arial"/>
               <a:ea typeface="Microsoft YaHei"/>
             </a:rPr>
-            <a:t>Output code for DO SCRIP</a:t>
+            <a:t>Output code for copy/paste in DO SCRIPT at Mission Editor</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="el-GR" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>759960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>170280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4951080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>464760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Frame 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7651080" y="170280"/>
+          <a:ext cx="4191120" cy="294480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="el-GR" sz="2100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Microsoft YaHei"/>
+            </a:rPr>
+            <a:t>RADIO MENU CREATOR 1.3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="el-GR" sz="2100" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>737640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4928760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>443160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Frame 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7628760" y="148680"/>
+          <a:ext cx="4191120" cy="294480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="el-GR" sz="2100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffff00"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Microsoft YaHei"/>
+            </a:rPr>
+            <a:t>RADIO MENU CREATOR 1.3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="el-GR" sz="2100" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="ffff00"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12712680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13432680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19603800" y="0"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>710280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Text Frame 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20343960" y="0"/>
+          <a:ext cx="718560" cy="710280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="el-GR" sz="1100" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="fafafa"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="el-GR" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="fafafa"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Microsoft YaHei"/>
+            </a:rPr>
+            <a:t>LockOn</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="el-GR" sz="1500" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="fafafa"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="el-GR" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="448aff"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Microsoft YaHei"/>
+            </a:rPr>
+            <a:t>Greece</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="el-GR" sz="1500" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="fafafa"/>
+            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1145,13 +1436,13 @@
       <c r="G1" s="7"/>
       <c r="H1" s="8" t="str">
         <f aca="false">IF(E4=1,"coalition.side.BLUE,",IF(E4=2,"coalition.side.RED,",""))</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8" t="str">
         <f aca="false">IF(E4=1,"addSubMenuForCoalition",IF(E4=2,"addSubMenuForCoalition","addSubMenu"))</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -1180,7 +1471,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="15" t="str">
         <f aca="false">IF(B2&lt;&gt;"",CONCATENATE(H2," ",B2," = ",J2,".",K2,"(",N2,"'",C2,"')",""),"")</f>
-        <v>local m1 = missionCommands.addSubMenu('Example Menu 1')</v>
+        <v>local m1 = missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Menu 1')</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>5</v>
@@ -1194,7 +1485,7 @@
       </c>
       <c r="K2" s="17" t="str">
         <f aca="false">K1</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L2" s="16" t="str">
         <f aca="false">IF(C2&lt;&gt;"",C2,"")</f>
@@ -1203,7 +1494,7 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16" t="str">
         <f aca="false">H1</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O2" s="9"/>
       <c r="XEX2" s="4"/>
@@ -1230,7 +1521,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15" t="str">
         <f aca="false">IF(B3&lt;&gt;"",CONCATENATE(H3," ",B3," = ",J3,".",K3,"(",N3,"'",C3,"')",""),"")</f>
-        <v>local m2 = missionCommands.addSubMenu('Example Menu 2')</v>
+        <v>local m2 = missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Menu 2')</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>5</v>
@@ -1244,7 +1535,7 @@
       </c>
       <c r="K3" s="17" t="str">
         <f aca="false">K2</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L3" s="16" t="str">
         <f aca="false">IF(C3&lt;&gt;"",C3,"")</f>
@@ -1253,7 +1544,7 @@
       <c r="M3" s="16"/>
       <c r="N3" s="16" t="str">
         <f aca="false">N2</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O3" s="9"/>
       <c r="XEX3" s="4"/>
@@ -1272,7 +1563,9 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="15" t="str">
         <f aca="false">IF(B4&lt;&gt;"",CONCATENATE(H4," ",B4," = ",J4,".",K4,"(",N4,"'",C4,"')",""),"")</f>
@@ -1290,7 +1583,7 @@
       </c>
       <c r="K4" s="17" t="str">
         <f aca="false">K3</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L4" s="16" t="str">
         <f aca="false">IF(C4&lt;&gt;"",C4,"")</f>
@@ -1299,7 +1592,7 @@
       <c r="M4" s="16"/>
       <c r="N4" s="16" t="str">
         <f aca="false">N3</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O4" s="9"/>
       <c r="XEX4" s="4"/>
@@ -1336,7 +1629,7 @@
       </c>
       <c r="K5" s="17" t="str">
         <f aca="false">K4</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L5" s="16" t="str">
         <f aca="false">IF(C5&lt;&gt;"",C5,"")</f>
@@ -1345,7 +1638,7 @@
       <c r="M5" s="16"/>
       <c r="N5" s="16" t="str">
         <f aca="false">N4</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O5" s="9"/>
       <c r="XEX5" s="4"/>
@@ -1382,7 +1675,7 @@
       </c>
       <c r="K6" s="17" t="str">
         <f aca="false">K5</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L6" s="16" t="str">
         <f aca="false">IF(C6&lt;&gt;"",C6,"")</f>
@@ -1391,7 +1684,7 @@
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="str">
         <f aca="false">N5</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O6" s="9"/>
       <c r="XEX6" s="4"/>
@@ -1428,7 +1721,7 @@
       </c>
       <c r="K7" s="17" t="str">
         <f aca="false">K6</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L7" s="16" t="str">
         <f aca="false">IF(C7&lt;&gt;"",C7,"")</f>
@@ -1437,7 +1730,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="16" t="str">
         <f aca="false">N6</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O7" s="9"/>
       <c r="XEX7" s="4"/>
@@ -1474,7 +1767,7 @@
       </c>
       <c r="K8" s="17" t="str">
         <f aca="false">K7</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L8" s="16" t="str">
         <f aca="false">IF(C8&lt;&gt;"",C8,"")</f>
@@ -1483,7 +1776,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="16" t="str">
         <f aca="false">N7</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O8" s="9"/>
       <c r="XEX8" s="4"/>
@@ -1520,7 +1813,7 @@
       </c>
       <c r="K9" s="17" t="str">
         <f aca="false">K8</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L9" s="16" t="str">
         <f aca="false">IF(C9&lt;&gt;"",C9,"")</f>
@@ -1529,7 +1822,7 @@
       <c r="M9" s="16"/>
       <c r="N9" s="16" t="str">
         <f aca="false">N8</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O9" s="9"/>
       <c r="XEX9" s="4"/>
@@ -1566,7 +1859,7 @@
       </c>
       <c r="K10" s="17" t="str">
         <f aca="false">K9</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L10" s="16" t="str">
         <f aca="false">IF(C10&lt;&gt;"",C10,"")</f>
@@ -1575,7 +1868,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16" t="str">
         <f aca="false">N9</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O10" s="9"/>
       <c r="XEX10" s="4"/>
@@ -1612,7 +1905,7 @@
       </c>
       <c r="K11" s="17" t="str">
         <f aca="false">K10</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L11" s="16" t="str">
         <f aca="false">IF(C11&lt;&gt;"",C11,"")</f>
@@ -1621,7 +1914,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="str">
         <f aca="false">N10</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O11" s="9"/>
       <c r="XEX11" s="4"/>
@@ -1658,7 +1951,7 @@
       </c>
       <c r="K12" s="17" t="str">
         <f aca="false">K11</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L12" s="16" t="str">
         <f aca="false">IF(C12&lt;&gt;"",C12,"")</f>
@@ -1667,7 +1960,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="str">
         <f aca="false">N11</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O12" s="9"/>
       <c r="XEX12" s="4"/>
@@ -1704,7 +1997,7 @@
       </c>
       <c r="K13" s="17" t="str">
         <f aca="false">K12</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L13" s="16" t="str">
         <f aca="false">IF(C13&lt;&gt;"",C13,"")</f>
@@ -1713,7 +2006,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16" t="str">
         <f aca="false">N12</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O13" s="9"/>
       <c r="XEX13" s="4"/>
@@ -1771,7 +2064,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="24" t="str">
         <f aca="false">IF(B15&lt;&gt;"",CONCATENATE(H15," ",B15," = ",J15,".",K15,"(",N15,"'",C15,"'",",",M15,")"),"")</f>
-        <v>local sm1 = missionCommands.addSubMenu('Example Sub Menu 1',m1)</v>
+        <v>local sm1 = missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Sub Menu 1',m1)</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>5</v>
@@ -1785,7 +2078,7 @@
       </c>
       <c r="K15" s="17" t="str">
         <f aca="false">K13</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L15" s="16" t="str">
         <f aca="false">IF(C15&lt;&gt;"",C15,"")</f>
@@ -1797,7 +2090,7 @@
       </c>
       <c r="N15" s="16" t="str">
         <f aca="false">N13</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O15" s="9"/>
       <c r="XEX15" s="4"/>
@@ -1826,7 +2119,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="24" t="str">
         <f aca="false">IF(B16&lt;&gt;"",CONCATENATE(H16," ",B16," = ",J16,".",K16,"(",N16,"'",C16,"'",",",M16,")"),"")</f>
-        <v>local sm2 = missionCommands.addSubMenu('Example Sub Menu 2',m1)</v>
+        <v>local sm2 = missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Sub Menu 2',m1)</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>5</v>
@@ -1840,7 +2133,7 @@
       </c>
       <c r="K16" s="17" t="str">
         <f aca="false">K15</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L16" s="16" t="str">
         <f aca="false">IF(C16&lt;&gt;"",C16,"")</f>
@@ -1852,7 +2145,7 @@
       </c>
       <c r="N16" s="16" t="str">
         <f aca="false">N15</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O16" s="9"/>
       <c r="XEX16" s="4"/>
@@ -1881,7 +2174,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="24" t="str">
         <f aca="false">IF(B17&lt;&gt;"",CONCATENATE(H17," ",B17," = ",J17,".",K17,"(",N17,"'",C17,"'",",",M17,")"),"")</f>
-        <v>local sm3 = missionCommands.addSubMenu('Example Sub Menu 3',m1)</v>
+        <v>local sm3 = missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Sub Menu 3',m1)</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>5</v>
@@ -1895,7 +2188,7 @@
       </c>
       <c r="K17" s="17" t="str">
         <f aca="false">K16</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L17" s="16" t="str">
         <f aca="false">IF(C17&lt;&gt;"",C17,"")</f>
@@ -1907,7 +2200,7 @@
       </c>
       <c r="N17" s="16" t="str">
         <f aca="false">N16</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O17" s="9"/>
       <c r="XEX17" s="4"/>
@@ -1936,7 +2229,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="24" t="str">
         <f aca="false">IF(B18&lt;&gt;"",CONCATENATE(H18," ",B18," = ",J18,".",K18,"(",N18,"'",C18,"'",",",M18,")"),"")</f>
-        <v>local sm4 = missionCommands.addSubMenu('Example Sub Menu 4',m2)</v>
+        <v>local sm4 = missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Sub Menu 4',m2)</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>5</v>
@@ -1950,7 +2243,7 @@
       </c>
       <c r="K18" s="17" t="str">
         <f aca="false">K17</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L18" s="16" t="str">
         <f aca="false">IF(C18&lt;&gt;"",C18,"")</f>
@@ -1962,7 +2255,7 @@
       </c>
       <c r="N18" s="16" t="str">
         <f aca="false">N17</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O18" s="9"/>
       <c r="XEX18" s="4"/>
@@ -1999,7 +2292,7 @@
       </c>
       <c r="K19" s="17" t="str">
         <f aca="false">K18</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L19" s="16" t="str">
         <f aca="false">IF(C19&lt;&gt;"",C19,"")</f>
@@ -2011,7 +2304,7 @@
       </c>
       <c r="N19" s="16" t="str">
         <f aca="false">N18</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O19" s="9"/>
       <c r="XEX19" s="4"/>
@@ -2045,13 +2338,13 @@
       </c>
       <c r="K20" s="17" t="str">
         <f aca="false">K19</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16" t="str">
         <f aca="false">N19</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O20" s="9"/>
       <c r="XEX20" s="4"/>
@@ -2085,13 +2378,13 @@
       </c>
       <c r="K21" s="17" t="str">
         <f aca="false">K20</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16" t="str">
         <f aca="false">N20</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O21" s="9"/>
       <c r="XEX21" s="4"/>
@@ -2125,13 +2418,13 @@
       </c>
       <c r="K22" s="17" t="str">
         <f aca="false">K21</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16" t="str">
         <f aca="false">N21</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O22" s="9"/>
       <c r="XEX22" s="4"/>
@@ -2165,13 +2458,13 @@
       </c>
       <c r="K23" s="17" t="str">
         <f aca="false">K22</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16" t="str">
         <f aca="false">N22</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O23" s="9"/>
       <c r="XEX23" s="4"/>
@@ -2205,13 +2498,13 @@
       </c>
       <c r="K24" s="17" t="str">
         <f aca="false">K23</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16" t="str">
         <f aca="false">N23</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O24" s="9"/>
       <c r="XEX24" s="4"/>
@@ -2245,13 +2538,13 @@
       </c>
       <c r="K25" s="17" t="str">
         <f aca="false">K24</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16" t="str">
         <f aca="false">N24</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O25" s="9"/>
       <c r="XEX25" s="4"/>
@@ -2285,13 +2578,13 @@
       </c>
       <c r="K26" s="17" t="str">
         <f aca="false">K25</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16" t="str">
         <f aca="false">N25</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O26" s="9"/>
       <c r="XEX26" s="4"/>
@@ -2349,7 +2642,7 @@
       </c>
       <c r="G28" s="24" t="str">
         <f aca="false">IF(B28&lt;&gt;"",CONCATENATE(J28,".",K28,"(",N28,"'",C28,"'",", ",I28,",function() ",L28,".",M28,"(",D28,",",F28,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 1', sm1,function() trigger.action.setUserFlag(1,1) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 1', sm1,function() trigger.action.setUserFlag(1,1) end, nil)</v>
       </c>
       <c r="H28" s="16" t="str">
         <f aca="false">IF(C28&lt;&gt;"",C28,"")</f>
@@ -2364,7 +2657,7 @@
       </c>
       <c r="K28" s="17" t="str">
         <f aca="false">K26</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>24</v>
@@ -2374,7 +2667,7 @@
       </c>
       <c r="N28" s="16" t="str">
         <f aca="false">N26</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O28" s="9"/>
       <c r="XEX28" s="4"/>
@@ -2403,7 +2696,7 @@
       </c>
       <c r="G29" s="24" t="str">
         <f aca="false">IF(B29&lt;&gt;"",CONCATENATE(J29,".",K29,"(",N29,"'",C29,"'",", ",I29,",function() ",L29,".",M29,"(",D29,",",F29,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 2', sm1,function() trigger.action.setUserFlag(1,2) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 2', sm1,function() trigger.action.setUserFlag(1,2) end, nil)</v>
       </c>
       <c r="H29" s="16" t="str">
         <f aca="false">IF(C29&lt;&gt;"",C29,"")</f>
@@ -2418,7 +2711,7 @@
       </c>
       <c r="K29" s="17" t="str">
         <f aca="false">K28</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>24</v>
@@ -2428,7 +2721,7 @@
       </c>
       <c r="N29" s="16" t="str">
         <f aca="false">N28</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O29" s="9"/>
       <c r="XEX29" s="4"/>
@@ -2457,7 +2750,7 @@
       </c>
       <c r="G30" s="24" t="str">
         <f aca="false">IF(B30&lt;&gt;"",CONCATENATE(J30,".",K30,"(",N30,"'",C30,"'",", ",I30,",function() ",L30,".",M30,"(",D30,",",F30,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 3', sm1,function() trigger.action.setUserFlag(1,3) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 3', sm1,function() trigger.action.setUserFlag(1,3) end, nil)</v>
       </c>
       <c r="H30" s="16" t="str">
         <f aca="false">IF(C30&lt;&gt;"",C30,"")</f>
@@ -2472,7 +2765,7 @@
       </c>
       <c r="K30" s="17" t="str">
         <f aca="false">K29</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L30" s="16" t="s">
         <v>24</v>
@@ -2482,7 +2775,7 @@
       </c>
       <c r="N30" s="16" t="str">
         <f aca="false">N29</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O30" s="9"/>
       <c r="XEX30" s="4"/>
@@ -2511,7 +2804,7 @@
       </c>
       <c r="G31" s="24" t="str">
         <f aca="false">IF(B31&lt;&gt;"",CONCATENATE(J31,".",K31,"(",N31,"'",C31,"'",", ",I31,",function() ",L31,".",M31,"(",D31,",",F31,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 4', sm1,function() trigger.action.setUserFlag(1,4) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 4', sm1,function() trigger.action.setUserFlag(1,4) end, nil)</v>
       </c>
       <c r="H31" s="16" t="str">
         <f aca="false">IF(C31&lt;&gt;"",C31,"")</f>
@@ -2526,7 +2819,7 @@
       </c>
       <c r="K31" s="17" t="str">
         <f aca="false">K30</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>24</v>
@@ -2536,7 +2829,7 @@
       </c>
       <c r="N31" s="16" t="str">
         <f aca="false">N30</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O31" s="9"/>
       <c r="XEX31" s="4"/>
@@ -2565,7 +2858,7 @@
       </c>
       <c r="G32" s="24" t="str">
         <f aca="false">IF(B32&lt;&gt;"",CONCATENATE(J32,".",K32,"(",N32,"'",C32,"'",", ",I32,",function() ",L32,".",M32,"(",D32,",",F32,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 5', sm1,function() trigger.action.setUserFlag(1,5) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 5', sm1,function() trigger.action.setUserFlag(1,5) end, nil)</v>
       </c>
       <c r="H32" s="16" t="str">
         <f aca="false">IF(C32&lt;&gt;"",C32,"")</f>
@@ -2580,7 +2873,7 @@
       </c>
       <c r="K32" s="17" t="str">
         <f aca="false">K31</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>24</v>
@@ -2590,7 +2883,7 @@
       </c>
       <c r="N32" s="16" t="str">
         <f aca="false">N31</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O32" s="9"/>
       <c r="XEX32" s="4"/>
@@ -2619,7 +2912,7 @@
       </c>
       <c r="G33" s="24" t="str">
         <f aca="false">IF(B33&lt;&gt;"",CONCATENATE(J33,".",K33,"(",N33,"'",C33,"'",", ",I33,",function() ",L33,".",M33,"(",D33,",",F33,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 6', sm1,function() trigger.action.setUserFlag(1,6) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 6', sm1,function() trigger.action.setUserFlag(1,6) end, nil)</v>
       </c>
       <c r="H33" s="16" t="str">
         <f aca="false">IF(C33&lt;&gt;"",C33,"")</f>
@@ -2634,7 +2927,7 @@
       </c>
       <c r="K33" s="17" t="str">
         <f aca="false">K32</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>24</v>
@@ -2644,7 +2937,7 @@
       </c>
       <c r="N33" s="16" t="str">
         <f aca="false">N32</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O33" s="9"/>
       <c r="XEX33" s="4"/>
@@ -2673,7 +2966,7 @@
       </c>
       <c r="G34" s="24" t="str">
         <f aca="false">IF(B34&lt;&gt;"",CONCATENATE(J34,".",K34,"(",N34,"'",C34,"'",", ",I34,",function() ",L34,".",M34,"(",D34,",",F34,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 7', sm1,function() trigger.action.setUserFlag(1,7) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 7', sm1,function() trigger.action.setUserFlag(1,7) end, nil)</v>
       </c>
       <c r="H34" s="16" t="str">
         <f aca="false">IF(C34&lt;&gt;"",C34,"")</f>
@@ -2688,7 +2981,7 @@
       </c>
       <c r="K34" s="17" t="str">
         <f aca="false">K33</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>24</v>
@@ -2698,7 +2991,7 @@
       </c>
       <c r="N34" s="16" t="str">
         <f aca="false">N33</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O34" s="9"/>
       <c r="XEX34" s="4"/>
@@ -2726,7 +3019,7 @@
       </c>
       <c r="G35" s="24" t="str">
         <f aca="false">IF(B35&lt;&gt;"",CONCATENATE(J35,".",K35,"(",N35,"'",C35,"'",", ",I35,",function() ",L35,".",M35,"(",D35,",",F35,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 8', sm1,function() trigger.action.setUserFlag(1,8) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 8', sm1,function() trigger.action.setUserFlag(1,8) end, nil)</v>
       </c>
       <c r="H35" s="16" t="str">
         <f aca="false">IF(C35&lt;&gt;"",C35,"")</f>
@@ -2741,7 +3034,7 @@
       </c>
       <c r="K35" s="17" t="str">
         <f aca="false">K34</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>24</v>
@@ -2751,7 +3044,7 @@
       </c>
       <c r="N35" s="16" t="str">
         <f aca="false">N34</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O35" s="9"/>
       <c r="XEX35" s="4"/>
@@ -2779,7 +3072,7 @@
       </c>
       <c r="G36" s="24" t="str">
         <f aca="false">IF(B36&lt;&gt;"",CONCATENATE(J36,".",K36,"(",N36,"'",C36,"'",", ",I36,",function() ",L36,".",M36,"(",D36,",",F36,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 9', sm2,function() trigger.action.setUserFlag(2,1) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 9', sm2,function() trigger.action.setUserFlag(2,1) end, nil)</v>
       </c>
       <c r="H36" s="16" t="str">
         <f aca="false">IF(C36&lt;&gt;"",C36,"")</f>
@@ -2794,7 +3087,7 @@
       </c>
       <c r="K36" s="17" t="str">
         <f aca="false">K35</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>24</v>
@@ -2804,7 +3097,7 @@
       </c>
       <c r="N36" s="16" t="str">
         <f aca="false">N35</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O36" s="9"/>
       <c r="XEX36" s="4"/>
@@ -2832,7 +3125,7 @@
       </c>
       <c r="G37" s="24" t="str">
         <f aca="false">IF(B37&lt;&gt;"",CONCATENATE(J37,".",K37,"(",N37,"'",C37,"'",", ",I37,",function() ",L37,".",M37,"(",D37,",",F37,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 10', sm2,function() trigger.action.setUserFlag(2,2) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 10', sm2,function() trigger.action.setUserFlag(2,2) end, nil)</v>
       </c>
       <c r="H37" s="16" t="str">
         <f aca="false">IF(C37&lt;&gt;"",C37,"")</f>
@@ -2847,7 +3140,7 @@
       </c>
       <c r="K37" s="17" t="str">
         <f aca="false">K36</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L37" s="16" t="s">
         <v>24</v>
@@ -2857,7 +3150,7 @@
       </c>
       <c r="N37" s="16" t="str">
         <f aca="false">N36</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O37" s="9"/>
       <c r="XEX37" s="4"/>
@@ -2885,7 +3178,7 @@
       </c>
       <c r="G38" s="24" t="str">
         <f aca="false">IF(B38&lt;&gt;"",CONCATENATE(J38,".",K38,"(",N38,"'",C38,"'",", ",I38,",function() ",L38,".",M38,"(",D38,",",F38,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 11', sm3,function() trigger.action.setUserFlag(3,1) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 11', sm3,function() trigger.action.setUserFlag(3,1) end, nil)</v>
       </c>
       <c r="H38" s="16" t="str">
         <f aca="false">IF(C38&lt;&gt;"",C38,"")</f>
@@ -2900,7 +3193,7 @@
       </c>
       <c r="K38" s="17" t="str">
         <f aca="false">K37</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L38" s="16" t="s">
         <v>24</v>
@@ -2910,7 +3203,7 @@
       </c>
       <c r="N38" s="16" t="str">
         <f aca="false">N37</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O38" s="9"/>
       <c r="XEX38" s="4"/>
@@ -2938,7 +3231,7 @@
       </c>
       <c r="G39" s="24" t="str">
         <f aca="false">IF(B39&lt;&gt;"",CONCATENATE(J39,".",K39,"(",N39,"'",C39,"'",", ",I39,",function() ",L39,".",M39,"(",D39,",",F39,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 12', sm3,function() trigger.action.setUserFlag(3,2) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 12', sm3,function() trigger.action.setUserFlag(3,2) end, nil)</v>
       </c>
       <c r="H39" s="16" t="str">
         <f aca="false">IF(C39&lt;&gt;"",C39,"")</f>
@@ -2953,7 +3246,7 @@
       </c>
       <c r="K39" s="17" t="str">
         <f aca="false">K38</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L39" s="16" t="s">
         <v>24</v>
@@ -2963,7 +3256,7 @@
       </c>
       <c r="N39" s="16" t="str">
         <f aca="false">N38</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O39" s="9"/>
       <c r="XEX39" s="4"/>
@@ -2991,7 +3284,7 @@
       </c>
       <c r="G40" s="24" t="str">
         <f aca="false">IF(B40&lt;&gt;"",CONCATENATE(J40,".",K40,"(",N40,"'",C40,"'",", ",I40,",function() ",L40,".",M40,"(",D40,",",F40,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 13', sm3,function() trigger.action.setUserFlag(3,3) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 13', sm3,function() trigger.action.setUserFlag(3,3) end, nil)</v>
       </c>
       <c r="H40" s="16" t="str">
         <f aca="false">IF(C40&lt;&gt;"",C40,"")</f>
@@ -3006,7 +3299,7 @@
       </c>
       <c r="K40" s="17" t="str">
         <f aca="false">K39</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>24</v>
@@ -3016,7 +3309,7 @@
       </c>
       <c r="N40" s="16" t="str">
         <f aca="false">N39</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O40" s="9"/>
       <c r="XEX40" s="4"/>
@@ -3044,7 +3337,7 @@
       </c>
       <c r="G41" s="24" t="str">
         <f aca="false">IF(B41&lt;&gt;"",CONCATENATE(J41,".",K41,"(",N41,"'",C41,"'",", ",I41,",function() ",L41,".",M41,"(",D41,",",F41,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 14', sm3,function() trigger.action.setUserFlag(3,4) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 14', sm3,function() trigger.action.setUserFlag(3,4) end, nil)</v>
       </c>
       <c r="H41" s="16" t="str">
         <f aca="false">IF(C41&lt;&gt;"",C41,"")</f>
@@ -3059,7 +3352,7 @@
       </c>
       <c r="K41" s="17" t="str">
         <f aca="false">K40</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>24</v>
@@ -3069,7 +3362,7 @@
       </c>
       <c r="N41" s="16" t="str">
         <f aca="false">N40</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O41" s="9"/>
       <c r="XEX41" s="4"/>
@@ -3097,7 +3390,7 @@
       </c>
       <c r="G42" s="24" t="str">
         <f aca="false">IF(B42&lt;&gt;"",CONCATENATE(J42,".",K42,"(",N42,"'",C42,"'",", ",I42,",function() ",L42,".",M42,"(",D42,",",F42,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 15', sm4,function() trigger.action.setUserFlag(4,1) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 15', sm4,function() trigger.action.setUserFlag(4,1) end, nil)</v>
       </c>
       <c r="H42" s="16" t="str">
         <f aca="false">IF(C42&lt;&gt;"",C42,"")</f>
@@ -3112,7 +3405,7 @@
       </c>
       <c r="K42" s="17" t="str">
         <f aca="false">K41</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L42" s="16" t="s">
         <v>24</v>
@@ -3122,7 +3415,7 @@
       </c>
       <c r="N42" s="16" t="str">
         <f aca="false">N41</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O42" s="9"/>
       <c r="XEX42" s="4"/>
@@ -3150,7 +3443,7 @@
       </c>
       <c r="G43" s="24" t="str">
         <f aca="false">IF(B43&lt;&gt;"",CONCATENATE(J43,".",K43,"(",N43,"'",C43,"'",", ",I43,",function() ",L43,".",M43,"(",D43,",",F43,") end, nil)"),"")</f>
-        <v>missionCommands.addSubMenu('Example Command 16', sm4,function() trigger.action.setUserFlag(4,2) end, nil)</v>
+        <v>missionCommands.addSubMenuForCoalition(coalition.side.BLUE,'Example Command 16', sm4,function() trigger.action.setUserFlag(4,2) end, nil)</v>
       </c>
       <c r="H43" s="16" t="str">
         <f aca="false">IF(C43&lt;&gt;"",C43,"")</f>
@@ -3165,7 +3458,7 @@
       </c>
       <c r="K43" s="17" t="str">
         <f aca="false">K42</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L43" s="16" t="s">
         <v>24</v>
@@ -3175,7 +3468,7 @@
       </c>
       <c r="N43" s="16" t="str">
         <f aca="false">N42</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O43" s="9"/>
       <c r="XEX43" s="4"/>
@@ -3210,7 +3503,7 @@
       </c>
       <c r="K44" s="17" t="str">
         <f aca="false">K43</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>24</v>
@@ -3220,7 +3513,7 @@
       </c>
       <c r="N44" s="16" t="str">
         <f aca="false">N43</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O44" s="9"/>
       <c r="XEX44" s="4"/>
@@ -3255,7 +3548,7 @@
       </c>
       <c r="K45" s="17" t="str">
         <f aca="false">K44</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>24</v>
@@ -3265,7 +3558,7 @@
       </c>
       <c r="N45" s="16" t="str">
         <f aca="false">N44</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O45" s="9"/>
       <c r="XEX45" s="4"/>
@@ -3300,7 +3593,7 @@
       </c>
       <c r="K46" s="17" t="str">
         <f aca="false">K45</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L46" s="16" t="s">
         <v>24</v>
@@ -3310,7 +3603,7 @@
       </c>
       <c r="N46" s="16" t="str">
         <f aca="false">N45</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O46" s="9"/>
       <c r="XEX46" s="4"/>
@@ -3345,7 +3638,7 @@
       </c>
       <c r="K47" s="17" t="str">
         <f aca="false">K46</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>24</v>
@@ -3355,7 +3648,7 @@
       </c>
       <c r="N47" s="16" t="str">
         <f aca="false">N46</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O47" s="9"/>
       <c r="XEX47" s="4"/>
@@ -3390,7 +3683,7 @@
       </c>
       <c r="K48" s="17" t="str">
         <f aca="false">K47</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L48" s="16" t="s">
         <v>24</v>
@@ -3400,7 +3693,7 @@
       </c>
       <c r="N48" s="16" t="str">
         <f aca="false">N47</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O48" s="9"/>
       <c r="XEX48" s="4"/>
@@ -3435,7 +3728,7 @@
       </c>
       <c r="K49" s="17" t="str">
         <f aca="false">K48</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L49" s="16" t="s">
         <v>24</v>
@@ -3445,7 +3738,7 @@
       </c>
       <c r="N49" s="16" t="str">
         <f aca="false">N48</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O49" s="9"/>
       <c r="XEX49" s="4"/>
@@ -3480,7 +3773,7 @@
       </c>
       <c r="K50" s="17" t="str">
         <f aca="false">K49</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L50" s="16" t="s">
         <v>24</v>
@@ -3490,7 +3783,7 @@
       </c>
       <c r="N50" s="16" t="str">
         <f aca="false">N49</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O50" s="9"/>
       <c r="XEX50" s="4"/>
@@ -3525,7 +3818,7 @@
       </c>
       <c r="K51" s="17" t="str">
         <f aca="false">K50</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L51" s="16" t="s">
         <v>24</v>
@@ -3535,7 +3828,7 @@
       </c>
       <c r="N51" s="16" t="str">
         <f aca="false">N50</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O51" s="9"/>
       <c r="XEX51" s="4"/>
@@ -3570,7 +3863,7 @@
       </c>
       <c r="K52" s="17" t="str">
         <f aca="false">K51</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L52" s="16" t="s">
         <v>24</v>
@@ -3580,7 +3873,7 @@
       </c>
       <c r="N52" s="16" t="str">
         <f aca="false">N51</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O52" s="9"/>
       <c r="XEX52" s="4"/>
@@ -3615,7 +3908,7 @@
       </c>
       <c r="K53" s="17" t="str">
         <f aca="false">K52</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L53" s="16" t="s">
         <v>24</v>
@@ -3625,7 +3918,7 @@
       </c>
       <c r="N53" s="16" t="str">
         <f aca="false">N52</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O53" s="9"/>
       <c r="XEX53" s="4"/>
@@ -3660,7 +3953,7 @@
       </c>
       <c r="K54" s="17" t="str">
         <f aca="false">K53</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L54" s="16" t="s">
         <v>24</v>
@@ -3670,7 +3963,7 @@
       </c>
       <c r="N54" s="16" t="str">
         <f aca="false">N53</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O54" s="9"/>
       <c r="XEX54" s="4"/>
@@ -3705,7 +3998,7 @@
       </c>
       <c r="K55" s="17" t="str">
         <f aca="false">K54</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>24</v>
@@ -3715,7 +4008,7 @@
       </c>
       <c r="N55" s="16" t="str">
         <f aca="false">N54</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O55" s="9"/>
       <c r="XEX55" s="4"/>
@@ -3750,7 +4043,7 @@
       </c>
       <c r="K56" s="17" t="str">
         <f aca="false">K55</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L56" s="16" t="s">
         <v>24</v>
@@ -3760,7 +4053,7 @@
       </c>
       <c r="N56" s="16" t="str">
         <f aca="false">N55</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O56" s="9"/>
       <c r="XEX56" s="4"/>
@@ -3795,7 +4088,7 @@
       </c>
       <c r="K57" s="17" t="str">
         <f aca="false">K56</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L57" s="16" t="s">
         <v>24</v>
@@ -3805,7 +4098,7 @@
       </c>
       <c r="N57" s="16" t="str">
         <f aca="false">N56</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O57" s="9"/>
       <c r="XEX57" s="4"/>
@@ -3840,7 +4133,7 @@
       </c>
       <c r="K58" s="17" t="str">
         <f aca="false">K57</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L58" s="16" t="s">
         <v>24</v>
@@ -3850,7 +4143,7 @@
       </c>
       <c r="N58" s="16" t="str">
         <f aca="false">N57</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O58" s="9"/>
       <c r="XEX58" s="4"/>
@@ -3885,7 +4178,7 @@
       </c>
       <c r="K59" s="17" t="str">
         <f aca="false">K58</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L59" s="16" t="s">
         <v>24</v>
@@ -3895,7 +4188,7 @@
       </c>
       <c r="N59" s="16" t="str">
         <f aca="false">N58</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O59" s="9"/>
       <c r="XEX59" s="4"/>
@@ -3930,7 +4223,7 @@
       </c>
       <c r="K60" s="17" t="str">
         <f aca="false">K59</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L60" s="16" t="s">
         <v>24</v>
@@ -3940,7 +4233,7 @@
       </c>
       <c r="N60" s="16" t="str">
         <f aca="false">N59</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O60" s="9"/>
       <c r="XEX60" s="4"/>
@@ -3975,7 +4268,7 @@
       </c>
       <c r="K61" s="17" t="str">
         <f aca="false">K60</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L61" s="16" t="s">
         <v>24</v>
@@ -3985,7 +4278,7 @@
       </c>
       <c r="N61" s="16" t="str">
         <f aca="false">N60</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O61" s="9"/>
       <c r="XEX61" s="4"/>
@@ -4020,7 +4313,7 @@
       </c>
       <c r="K62" s="17" t="str">
         <f aca="false">K61</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L62" s="16" t="s">
         <v>24</v>
@@ -4030,7 +4323,7 @@
       </c>
       <c r="N62" s="16" t="str">
         <f aca="false">N61</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O62" s="9"/>
       <c r="XEX62" s="4"/>
@@ -4065,7 +4358,7 @@
       </c>
       <c r="K63" s="17" t="str">
         <f aca="false">K62</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L63" s="16" t="s">
         <v>24</v>
@@ -4075,7 +4368,7 @@
       </c>
       <c r="N63" s="16" t="str">
         <f aca="false">N62</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O63" s="9"/>
       <c r="XEX63" s="4"/>
@@ -4110,7 +4403,7 @@
       </c>
       <c r="K64" s="17" t="str">
         <f aca="false">K63</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L64" s="16" t="s">
         <v>24</v>
@@ -4120,7 +4413,7 @@
       </c>
       <c r="N64" s="16" t="str">
         <f aca="false">N63</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O64" s="9"/>
       <c r="XEX64" s="4"/>
@@ -4155,7 +4448,7 @@
       </c>
       <c r="K65" s="17" t="str">
         <f aca="false">K64</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L65" s="16" t="s">
         <v>24</v>
@@ -4165,7 +4458,7 @@
       </c>
       <c r="N65" s="16" t="str">
         <f aca="false">N64</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O65" s="9"/>
       <c r="XEX65" s="4"/>
@@ -4200,7 +4493,7 @@
       </c>
       <c r="K66" s="17" t="str">
         <f aca="false">K65</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L66" s="16" t="s">
         <v>24</v>
@@ -4210,7 +4503,7 @@
       </c>
       <c r="N66" s="16" t="str">
         <f aca="false">N65</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O66" s="9"/>
       <c r="XEX66" s="4"/>
@@ -4245,7 +4538,7 @@
       </c>
       <c r="K67" s="17" t="str">
         <f aca="false">K66</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L67" s="16" t="s">
         <v>24</v>
@@ -4255,7 +4548,7 @@
       </c>
       <c r="N67" s="16" t="str">
         <f aca="false">N66</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O67" s="9"/>
       <c r="XEX67" s="4"/>
@@ -4290,7 +4583,7 @@
       </c>
       <c r="K68" s="17" t="str">
         <f aca="false">K67</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L68" s="16" t="s">
         <v>24</v>
@@ -4300,7 +4593,7 @@
       </c>
       <c r="N68" s="16" t="str">
         <f aca="false">N67</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O68" s="9"/>
       <c r="XEX68" s="4"/>
@@ -4335,7 +4628,7 @@
       </c>
       <c r="K69" s="17" t="str">
         <f aca="false">K68</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L69" s="16" t="s">
         <v>24</v>
@@ -4345,7 +4638,7 @@
       </c>
       <c r="N69" s="16" t="str">
         <f aca="false">N68</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O69" s="9"/>
       <c r="XEX69" s="4"/>
@@ -4380,7 +4673,7 @@
       </c>
       <c r="K70" s="17" t="str">
         <f aca="false">K69</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L70" s="16" t="s">
         <v>24</v>
@@ -4390,7 +4683,7 @@
       </c>
       <c r="N70" s="16" t="str">
         <f aca="false">N69</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O70" s="9"/>
       <c r="XEX70" s="4"/>
@@ -4425,7 +4718,7 @@
       </c>
       <c r="K71" s="17" t="str">
         <f aca="false">K70</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L71" s="16" t="s">
         <v>24</v>
@@ -4435,7 +4728,7 @@
       </c>
       <c r="N71" s="16" t="str">
         <f aca="false">N70</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O71" s="9"/>
       <c r="XEX71" s="4"/>
@@ -4470,7 +4763,7 @@
       </c>
       <c r="K72" s="17" t="str">
         <f aca="false">K71</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L72" s="16" t="s">
         <v>24</v>
@@ -4480,7 +4773,7 @@
       </c>
       <c r="N72" s="16" t="str">
         <f aca="false">N71</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O72" s="9"/>
       <c r="XEX72" s="4"/>
@@ -4515,7 +4808,7 @@
       </c>
       <c r="K73" s="17" t="str">
         <f aca="false">K72</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L73" s="16" t="s">
         <v>24</v>
@@ -4525,7 +4818,7 @@
       </c>
       <c r="N73" s="16" t="str">
         <f aca="false">N72</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O73" s="9"/>
       <c r="XEX73" s="4"/>
@@ -4560,7 +4853,7 @@
       </c>
       <c r="K74" s="17" t="str">
         <f aca="false">K73</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L74" s="16" t="s">
         <v>24</v>
@@ -4570,7 +4863,7 @@
       </c>
       <c r="N74" s="16" t="str">
         <f aca="false">N73</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O74" s="9"/>
       <c r="XEX74" s="4"/>
@@ -4605,7 +4898,7 @@
       </c>
       <c r="K75" s="17" t="str">
         <f aca="false">K74</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L75" s="16" t="s">
         <v>24</v>
@@ -4615,7 +4908,7 @@
       </c>
       <c r="N75" s="16" t="str">
         <f aca="false">N74</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O75" s="9"/>
       <c r="XEX75" s="4"/>
@@ -4650,7 +4943,7 @@
       </c>
       <c r="K76" s="17" t="str">
         <f aca="false">K75</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L76" s="16" t="s">
         <v>24</v>
@@ -4660,7 +4953,7 @@
       </c>
       <c r="N76" s="16" t="str">
         <f aca="false">N75</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O76" s="9"/>
       <c r="XEX76" s="4"/>
@@ -4695,7 +4988,7 @@
       </c>
       <c r="K77" s="17" t="str">
         <f aca="false">K76</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L77" s="16" t="s">
         <v>24</v>
@@ -4705,7 +4998,7 @@
       </c>
       <c r="N77" s="16" t="str">
         <f aca="false">N76</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O77" s="9"/>
       <c r="XEX77" s="4"/>
@@ -4740,7 +5033,7 @@
       </c>
       <c r="K78" s="17" t="str">
         <f aca="false">K77</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L78" s="16" t="s">
         <v>24</v>
@@ -4750,7 +5043,7 @@
       </c>
       <c r="N78" s="16" t="str">
         <f aca="false">N77</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O78" s="9"/>
       <c r="XEX78" s="4"/>
@@ -4785,7 +5078,7 @@
       </c>
       <c r="K79" s="17" t="str">
         <f aca="false">K78</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L79" s="16" t="s">
         <v>24</v>
@@ -4795,7 +5088,7 @@
       </c>
       <c r="N79" s="16" t="str">
         <f aca="false">N78</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O79" s="9"/>
       <c r="XEX79" s="4"/>
@@ -4830,7 +5123,7 @@
       </c>
       <c r="K80" s="17" t="str">
         <f aca="false">K79</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L80" s="16" t="s">
         <v>24</v>
@@ -4840,7 +5133,7 @@
       </c>
       <c r="N80" s="16" t="str">
         <f aca="false">N79</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O80" s="9"/>
       <c r="XEX80" s="4"/>
@@ -4875,7 +5168,7 @@
       </c>
       <c r="K81" s="17" t="str">
         <f aca="false">K80</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L81" s="16" t="s">
         <v>24</v>
@@ -4885,7 +5178,7 @@
       </c>
       <c r="N81" s="16" t="str">
         <f aca="false">N80</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O81" s="9"/>
       <c r="XEX81" s="4"/>
@@ -4920,7 +5213,7 @@
       </c>
       <c r="K82" s="17" t="str">
         <f aca="false">K81</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L82" s="16" t="s">
         <v>24</v>
@@ -4930,7 +5223,7 @@
       </c>
       <c r="N82" s="16" t="str">
         <f aca="false">N81</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O82" s="9"/>
       <c r="XEX82" s="4"/>
@@ -4965,7 +5258,7 @@
       </c>
       <c r="K83" s="17" t="str">
         <f aca="false">K82</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L83" s="16" t="s">
         <v>24</v>
@@ -4975,7 +5268,7 @@
       </c>
       <c r="N83" s="16" t="str">
         <f aca="false">N82</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O83" s="9"/>
       <c r="XEX83" s="4"/>
@@ -5010,7 +5303,7 @@
       </c>
       <c r="K84" s="17" t="str">
         <f aca="false">K83</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L84" s="16" t="s">
         <v>24</v>
@@ -5020,7 +5313,7 @@
       </c>
       <c r="N84" s="16" t="str">
         <f aca="false">N83</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O84" s="9"/>
       <c r="XEX84" s="4"/>
@@ -5055,7 +5348,7 @@
       </c>
       <c r="K85" s="17" t="str">
         <f aca="false">K84</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L85" s="16" t="s">
         <v>24</v>
@@ -5065,7 +5358,7 @@
       </c>
       <c r="N85" s="16" t="str">
         <f aca="false">N84</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O85" s="9"/>
       <c r="XEX85" s="4"/>
@@ -5100,7 +5393,7 @@
       </c>
       <c r="K86" s="17" t="str">
         <f aca="false">K85</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L86" s="16" t="s">
         <v>24</v>
@@ -5110,7 +5403,7 @@
       </c>
       <c r="N86" s="16" t="str">
         <f aca="false">N85</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O86" s="9"/>
       <c r="XEX86" s="4"/>
@@ -5145,7 +5438,7 @@
       </c>
       <c r="K87" s="17" t="str">
         <f aca="false">K86</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L87" s="16" t="s">
         <v>24</v>
@@ -5155,7 +5448,7 @@
       </c>
       <c r="N87" s="16" t="str">
         <f aca="false">N86</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O87" s="9"/>
       <c r="XEX87" s="4"/>
@@ -5190,7 +5483,7 @@
       </c>
       <c r="K88" s="17" t="str">
         <f aca="false">K87</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L88" s="16" t="s">
         <v>24</v>
@@ -5200,7 +5493,7 @@
       </c>
       <c r="N88" s="16" t="str">
         <f aca="false">N87</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O88" s="9"/>
       <c r="XEX88" s="4"/>
@@ -5235,7 +5528,7 @@
       </c>
       <c r="K89" s="17" t="str">
         <f aca="false">K88</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L89" s="16" t="s">
         <v>24</v>
@@ -5245,7 +5538,7 @@
       </c>
       <c r="N89" s="16" t="str">
         <f aca="false">N88</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O89" s="9"/>
       <c r="XEX89" s="4"/>
@@ -5280,7 +5573,7 @@
       </c>
       <c r="K90" s="17" t="str">
         <f aca="false">K89</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L90" s="16" t="s">
         <v>24</v>
@@ -5290,7 +5583,7 @@
       </c>
       <c r="N90" s="16" t="str">
         <f aca="false">N89</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O90" s="9"/>
       <c r="XEX90" s="4"/>
@@ -5325,7 +5618,7 @@
       </c>
       <c r="K91" s="17" t="str">
         <f aca="false">K90</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L91" s="16" t="s">
         <v>24</v>
@@ -5335,7 +5628,7 @@
       </c>
       <c r="N91" s="16" t="str">
         <f aca="false">N90</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O91" s="9"/>
       <c r="XEX91" s="4"/>
@@ -5370,7 +5663,7 @@
       </c>
       <c r="K92" s="17" t="str">
         <f aca="false">K91</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L92" s="16" t="s">
         <v>24</v>
@@ -5380,7 +5673,7 @@
       </c>
       <c r="N92" s="16" t="str">
         <f aca="false">N91</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O92" s="9"/>
       <c r="XEX92" s="4"/>
@@ -5415,7 +5708,7 @@
       </c>
       <c r="K93" s="17" t="str">
         <f aca="false">K92</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L93" s="16" t="s">
         <v>24</v>
@@ -5425,7 +5718,7 @@
       </c>
       <c r="N93" s="16" t="str">
         <f aca="false">N92</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O93" s="9"/>
       <c r="XEX93" s="4"/>
@@ -5460,7 +5753,7 @@
       </c>
       <c r="K94" s="17" t="str">
         <f aca="false">K93</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L94" s="16" t="s">
         <v>24</v>
@@ -5470,7 +5763,7 @@
       </c>
       <c r="N94" s="16" t="str">
         <f aca="false">N93</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O94" s="9"/>
       <c r="XEX94" s="4"/>
@@ -5505,7 +5798,7 @@
       </c>
       <c r="K95" s="17" t="str">
         <f aca="false">K94</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L95" s="16" t="s">
         <v>24</v>
@@ -5515,7 +5808,7 @@
       </c>
       <c r="N95" s="16" t="str">
         <f aca="false">N94</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O95" s="9"/>
       <c r="XEX95" s="4"/>
@@ -5550,7 +5843,7 @@
       </c>
       <c r="K96" s="17" t="str">
         <f aca="false">K95</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L96" s="16" t="s">
         <v>24</v>
@@ -5560,7 +5853,7 @@
       </c>
       <c r="N96" s="16" t="str">
         <f aca="false">N95</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O96" s="9"/>
       <c r="XEX96" s="4"/>
@@ -5595,7 +5888,7 @@
       </c>
       <c r="K97" s="17" t="str">
         <f aca="false">K96</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L97" s="16" t="s">
         <v>24</v>
@@ -5605,7 +5898,7 @@
       </c>
       <c r="N97" s="16" t="str">
         <f aca="false">N96</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O97" s="9"/>
       <c r="XEX97" s="4"/>
@@ -5640,7 +5933,7 @@
       </c>
       <c r="K98" s="17" t="str">
         <f aca="false">K97</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L98" s="16" t="s">
         <v>24</v>
@@ -5650,7 +5943,7 @@
       </c>
       <c r="N98" s="16" t="str">
         <f aca="false">N97</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O98" s="9"/>
       <c r="XEX98" s="4"/>
@@ -5685,7 +5978,7 @@
       </c>
       <c r="K99" s="17" t="str">
         <f aca="false">K98</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L99" s="16" t="s">
         <v>24</v>
@@ -5695,7 +5988,7 @@
       </c>
       <c r="N99" s="16" t="str">
         <f aca="false">N98</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O99" s="9"/>
       <c r="XEX99" s="4"/>
@@ -5730,7 +6023,7 @@
       </c>
       <c r="K100" s="17" t="str">
         <f aca="false">K99</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L100" s="16" t="s">
         <v>24</v>
@@ -5740,7 +6033,7 @@
       </c>
       <c r="N100" s="16" t="str">
         <f aca="false">N99</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O100" s="9"/>
       <c r="XEX100" s="4"/>
@@ -5775,7 +6068,7 @@
       </c>
       <c r="K101" s="17" t="str">
         <f aca="false">K100</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L101" s="16" t="s">
         <v>24</v>
@@ -5785,7 +6078,7 @@
       </c>
       <c r="N101" s="16" t="str">
         <f aca="false">N100</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O101" s="9"/>
       <c r="XEX101" s="4"/>
@@ -5820,7 +6113,7 @@
       </c>
       <c r="K102" s="17" t="str">
         <f aca="false">K101</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L102" s="16" t="s">
         <v>24</v>
@@ -5830,7 +6123,7 @@
       </c>
       <c r="N102" s="16" t="str">
         <f aca="false">N101</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O102" s="9"/>
       <c r="XEX102" s="4"/>
@@ -5865,7 +6158,7 @@
       </c>
       <c r="K103" s="17" t="str">
         <f aca="false">K102</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L103" s="16" t="s">
         <v>24</v>
@@ -5875,7 +6168,7 @@
       </c>
       <c r="N103" s="16" t="str">
         <f aca="false">N102</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O103" s="9"/>
       <c r="XEX103" s="4"/>
@@ -5910,7 +6203,7 @@
       </c>
       <c r="K104" s="17" t="str">
         <f aca="false">K103</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L104" s="16" t="s">
         <v>24</v>
@@ -5920,7 +6213,7 @@
       </c>
       <c r="N104" s="16" t="str">
         <f aca="false">N103</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O104" s="9"/>
       <c r="XEX104" s="4"/>
@@ -5955,7 +6248,7 @@
       </c>
       <c r="K105" s="17" t="str">
         <f aca="false">K104</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L105" s="16" t="s">
         <v>24</v>
@@ -5965,7 +6258,7 @@
       </c>
       <c r="N105" s="16" t="str">
         <f aca="false">N104</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O105" s="9"/>
       <c r="XEX105" s="4"/>
@@ -6000,7 +6293,7 @@
       </c>
       <c r="K106" s="17" t="str">
         <f aca="false">K105</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L106" s="16" t="s">
         <v>24</v>
@@ -6010,7 +6303,7 @@
       </c>
       <c r="N106" s="16" t="str">
         <f aca="false">N105</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O106" s="9"/>
       <c r="XEX106" s="4"/>
@@ -6045,7 +6338,7 @@
       </c>
       <c r="K107" s="17" t="str">
         <f aca="false">K106</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L107" s="16" t="s">
         <v>24</v>
@@ -6055,7 +6348,7 @@
       </c>
       <c r="N107" s="16" t="str">
         <f aca="false">N106</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O107" s="9"/>
       <c r="XEX107" s="4"/>
@@ -6090,7 +6383,7 @@
       </c>
       <c r="K108" s="17" t="str">
         <f aca="false">K107</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L108" s="16" t="s">
         <v>24</v>
@@ -6100,7 +6393,7 @@
       </c>
       <c r="N108" s="16" t="str">
         <f aca="false">N107</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O108" s="9"/>
       <c r="XEX108" s="4"/>
@@ -6135,7 +6428,7 @@
       </c>
       <c r="K109" s="17" t="str">
         <f aca="false">K108</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L109" s="16" t="s">
         <v>24</v>
@@ -6145,7 +6438,7 @@
       </c>
       <c r="N109" s="16" t="str">
         <f aca="false">N108</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O109" s="9"/>
       <c r="XEX109" s="4"/>
@@ -6180,7 +6473,7 @@
       </c>
       <c r="K110" s="17" t="str">
         <f aca="false">K109</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L110" s="16" t="s">
         <v>24</v>
@@ -6190,7 +6483,7 @@
       </c>
       <c r="N110" s="16" t="str">
         <f aca="false">N109</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O110" s="9"/>
       <c r="XEX110" s="4"/>
@@ -6225,7 +6518,7 @@
       </c>
       <c r="K111" s="17" t="str">
         <f aca="false">K110</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L111" s="16" t="s">
         <v>24</v>
@@ -6235,7 +6528,7 @@
       </c>
       <c r="N111" s="16" t="str">
         <f aca="false">N110</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O111" s="9"/>
       <c r="XEX111" s="4"/>
@@ -6270,7 +6563,7 @@
       </c>
       <c r="K112" s="17" t="str">
         <f aca="false">K111</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L112" s="16" t="s">
         <v>24</v>
@@ -6280,7 +6573,7 @@
       </c>
       <c r="N112" s="16" t="str">
         <f aca="false">N111</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O112" s="9"/>
       <c r="XEX112" s="4"/>
@@ -6315,7 +6608,7 @@
       </c>
       <c r="K113" s="17" t="str">
         <f aca="false">K112</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L113" s="16" t="s">
         <v>24</v>
@@ -6325,7 +6618,7 @@
       </c>
       <c r="N113" s="16" t="str">
         <f aca="false">N112</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O113" s="9"/>
       <c r="XEX113" s="4"/>
@@ -6360,7 +6653,7 @@
       </c>
       <c r="K114" s="17" t="str">
         <f aca="false">K113</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L114" s="16" t="s">
         <v>24</v>
@@ -6370,7 +6663,7 @@
       </c>
       <c r="N114" s="16" t="str">
         <f aca="false">N113</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O114" s="9"/>
       <c r="XEX114" s="4"/>
@@ -6405,7 +6698,7 @@
       </c>
       <c r="K115" s="17" t="str">
         <f aca="false">K114</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L115" s="16" t="s">
         <v>24</v>
@@ -6415,7 +6708,7 @@
       </c>
       <c r="N115" s="16" t="str">
         <f aca="false">N114</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O115" s="9"/>
       <c r="XEX115" s="4"/>
@@ -6450,7 +6743,7 @@
       </c>
       <c r="K116" s="17" t="str">
         <f aca="false">K115</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L116" s="16" t="s">
         <v>24</v>
@@ -6460,7 +6753,7 @@
       </c>
       <c r="N116" s="16" t="str">
         <f aca="false">N115</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O116" s="9"/>
       <c r="XEX116" s="4"/>
@@ -6495,7 +6788,7 @@
       </c>
       <c r="K117" s="17" t="str">
         <f aca="false">K116</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L117" s="16" t="s">
         <v>24</v>
@@ -6505,7 +6798,7 @@
       </c>
       <c r="N117" s="16" t="str">
         <f aca="false">N116</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O117" s="9"/>
       <c r="XEX117" s="4"/>
@@ -6540,7 +6833,7 @@
       </c>
       <c r="K118" s="17" t="str">
         <f aca="false">K117</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L118" s="16" t="s">
         <v>24</v>
@@ -6550,7 +6843,7 @@
       </c>
       <c r="N118" s="16" t="str">
         <f aca="false">N117</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O118" s="9"/>
       <c r="XEX118" s="4"/>
@@ -6585,7 +6878,7 @@
       </c>
       <c r="K119" s="17" t="str">
         <f aca="false">K118</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L119" s="16" t="s">
         <v>24</v>
@@ -6595,7 +6888,7 @@
       </c>
       <c r="N119" s="16" t="str">
         <f aca="false">N118</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O119" s="9"/>
       <c r="XEX119" s="4"/>
@@ -6630,7 +6923,7 @@
       </c>
       <c r="K120" s="17" t="str">
         <f aca="false">K119</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L120" s="16" t="s">
         <v>24</v>
@@ -6640,7 +6933,7 @@
       </c>
       <c r="N120" s="16" t="str">
         <f aca="false">N119</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O120" s="9"/>
       <c r="XEX120" s="4"/>
@@ -6675,7 +6968,7 @@
       </c>
       <c r="K121" s="17" t="str">
         <f aca="false">K120</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L121" s="16" t="s">
         <v>24</v>
@@ -6685,7 +6978,7 @@
       </c>
       <c r="N121" s="16" t="str">
         <f aca="false">N120</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O121" s="9"/>
       <c r="XEX121" s="4"/>
@@ -6720,7 +7013,7 @@
       </c>
       <c r="K122" s="17" t="str">
         <f aca="false">K121</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L122" s="16" t="s">
         <v>24</v>
@@ -6730,7 +7023,7 @@
       </c>
       <c r="N122" s="16" t="str">
         <f aca="false">N121</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O122" s="9"/>
       <c r="XEX122" s="4"/>
@@ -6765,7 +7058,7 @@
       </c>
       <c r="K123" s="17" t="str">
         <f aca="false">K122</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L123" s="16" t="s">
         <v>24</v>
@@ -6775,7 +7068,7 @@
       </c>
       <c r="N123" s="16" t="str">
         <f aca="false">N122</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O123" s="9"/>
       <c r="XEX123" s="4"/>
@@ -6810,7 +7103,7 @@
       </c>
       <c r="K124" s="17" t="str">
         <f aca="false">K123</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L124" s="16" t="s">
         <v>24</v>
@@ -6820,7 +7113,7 @@
       </c>
       <c r="N124" s="16" t="str">
         <f aca="false">N123</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O124" s="9"/>
       <c r="XEX124" s="4"/>
@@ -6855,7 +7148,7 @@
       </c>
       <c r="K125" s="17" t="str">
         <f aca="false">K124</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L125" s="16" t="s">
         <v>24</v>
@@ -6865,7 +7158,7 @@
       </c>
       <c r="N125" s="16" t="str">
         <f aca="false">N124</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O125" s="9"/>
       <c r="XEX125" s="4"/>
@@ -6900,7 +7193,7 @@
       </c>
       <c r="K126" s="17" t="str">
         <f aca="false">K125</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L126" s="16" t="s">
         <v>24</v>
@@ -6910,7 +7203,7 @@
       </c>
       <c r="N126" s="16" t="str">
         <f aca="false">N125</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O126" s="9"/>
       <c r="XEX126" s="4"/>
@@ -6945,7 +7238,7 @@
       </c>
       <c r="K127" s="17" t="str">
         <f aca="false">K126</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L127" s="16" t="s">
         <v>24</v>
@@ -6955,7 +7248,7 @@
       </c>
       <c r="N127" s="16" t="str">
         <f aca="false">N126</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O127" s="9"/>
       <c r="XEX127" s="4"/>
@@ -6990,7 +7283,7 @@
       </c>
       <c r="K128" s="17" t="str">
         <f aca="false">K127</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L128" s="16" t="s">
         <v>24</v>
@@ -7000,7 +7293,7 @@
       </c>
       <c r="N128" s="16" t="str">
         <f aca="false">N127</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O128" s="9"/>
       <c r="XEX128" s="4"/>
@@ -7035,7 +7328,7 @@
       </c>
       <c r="K129" s="17" t="str">
         <f aca="false">K128</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L129" s="16" t="s">
         <v>24</v>
@@ -7045,7 +7338,7 @@
       </c>
       <c r="N129" s="16" t="str">
         <f aca="false">N128</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O129" s="9"/>
       <c r="XEX129" s="4"/>
@@ -7080,7 +7373,7 @@
       </c>
       <c r="K130" s="17" t="str">
         <f aca="false">K129</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L130" s="16" t="s">
         <v>24</v>
@@ -7090,7 +7383,7 @@
       </c>
       <c r="N130" s="16" t="str">
         <f aca="false">N129</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O130" s="9"/>
       <c r="XEX130" s="4"/>
@@ -7125,7 +7418,7 @@
       </c>
       <c r="K131" s="17" t="str">
         <f aca="false">K130</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L131" s="16" t="s">
         <v>24</v>
@@ -7135,7 +7428,7 @@
       </c>
       <c r="N131" s="16" t="str">
         <f aca="false">N130</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O131" s="9"/>
       <c r="XEX131" s="4"/>
@@ -7170,7 +7463,7 @@
       </c>
       <c r="K132" s="17" t="str">
         <f aca="false">K131</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L132" s="16" t="s">
         <v>24</v>
@@ -7180,7 +7473,7 @@
       </c>
       <c r="N132" s="16" t="str">
         <f aca="false">N131</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O132" s="9"/>
       <c r="XEX132" s="4"/>
@@ -7215,7 +7508,7 @@
       </c>
       <c r="K133" s="17" t="str">
         <f aca="false">K132</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L133" s="16" t="s">
         <v>24</v>
@@ -7225,7 +7518,7 @@
       </c>
       <c r="N133" s="16" t="str">
         <f aca="false">N132</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O133" s="9"/>
       <c r="XEX133" s="4"/>
@@ -7260,7 +7553,7 @@
       </c>
       <c r="K134" s="17" t="str">
         <f aca="false">K133</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L134" s="16" t="s">
         <v>24</v>
@@ -7270,7 +7563,7 @@
       </c>
       <c r="N134" s="16" t="str">
         <f aca="false">N133</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O134" s="9"/>
       <c r="XEX134" s="4"/>
@@ -7305,7 +7598,7 @@
       </c>
       <c r="K135" s="17" t="str">
         <f aca="false">K134</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L135" s="16" t="s">
         <v>24</v>
@@ -7315,7 +7608,7 @@
       </c>
       <c r="N135" s="16" t="str">
         <f aca="false">N134</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O135" s="9"/>
       <c r="XEX135" s="4"/>
@@ -7350,7 +7643,7 @@
       </c>
       <c r="K136" s="17" t="str">
         <f aca="false">K135</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L136" s="16" t="s">
         <v>24</v>
@@ -7360,7 +7653,7 @@
       </c>
       <c r="N136" s="16" t="str">
         <f aca="false">N135</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O136" s="9"/>
       <c r="XEX136" s="4"/>
@@ -7395,7 +7688,7 @@
       </c>
       <c r="K137" s="17" t="str">
         <f aca="false">K136</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L137" s="16" t="s">
         <v>24</v>
@@ -7405,7 +7698,7 @@
       </c>
       <c r="N137" s="16" t="str">
         <f aca="false">N136</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O137" s="9"/>
       <c r="XEX137" s="4"/>
@@ -7440,7 +7733,7 @@
       </c>
       <c r="K138" s="17" t="str">
         <f aca="false">K137</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L138" s="16" t="s">
         <v>24</v>
@@ -7450,7 +7743,7 @@
       </c>
       <c r="N138" s="16" t="str">
         <f aca="false">N137</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O138" s="9"/>
       <c r="XEX138" s="4"/>
@@ -7485,7 +7778,7 @@
       </c>
       <c r="K139" s="17" t="str">
         <f aca="false">K138</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L139" s="16" t="s">
         <v>24</v>
@@ -7495,7 +7788,7 @@
       </c>
       <c r="N139" s="16" t="str">
         <f aca="false">N138</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O139" s="9"/>
       <c r="XEX139" s="4"/>
@@ -7530,7 +7823,7 @@
       </c>
       <c r="K140" s="17" t="str">
         <f aca="false">K139</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L140" s="16" t="s">
         <v>24</v>
@@ -7540,7 +7833,7 @@
       </c>
       <c r="N140" s="16" t="str">
         <f aca="false">N139</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O140" s="9"/>
       <c r="XEX140" s="4"/>
@@ -7575,7 +7868,7 @@
       </c>
       <c r="K141" s="17" t="str">
         <f aca="false">K140</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L141" s="16" t="s">
         <v>24</v>
@@ -7585,7 +7878,7 @@
       </c>
       <c r="N141" s="16" t="str">
         <f aca="false">N140</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O141" s="9"/>
       <c r="XEX141" s="4"/>
@@ -7620,7 +7913,7 @@
       </c>
       <c r="K142" s="17" t="str">
         <f aca="false">K141</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L142" s="16" t="s">
         <v>24</v>
@@ -7630,7 +7923,7 @@
       </c>
       <c r="N142" s="16" t="str">
         <f aca="false">N141</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O142" s="9"/>
       <c r="XEX142" s="4"/>
@@ -7665,7 +7958,7 @@
       </c>
       <c r="K143" s="17" t="str">
         <f aca="false">K142</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L143" s="16" t="s">
         <v>24</v>
@@ -7675,7 +7968,7 @@
       </c>
       <c r="N143" s="16" t="str">
         <f aca="false">N142</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O143" s="9"/>
       <c r="XEX143" s="4"/>
@@ -7710,7 +8003,7 @@
       </c>
       <c r="K144" s="17" t="str">
         <f aca="false">K143</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L144" s="16" t="s">
         <v>24</v>
@@ -7720,7 +8013,7 @@
       </c>
       <c r="N144" s="16" t="str">
         <f aca="false">N143</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O144" s="9"/>
       <c r="XEX144" s="4"/>
@@ -7755,7 +8048,7 @@
       </c>
       <c r="K145" s="17" t="str">
         <f aca="false">K144</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L145" s="16" t="s">
         <v>24</v>
@@ -7765,7 +8058,7 @@
       </c>
       <c r="N145" s="16" t="str">
         <f aca="false">N144</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O145" s="9"/>
       <c r="XEX145" s="4"/>
@@ -7800,7 +8093,7 @@
       </c>
       <c r="K146" s="17" t="str">
         <f aca="false">K145</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L146" s="16" t="s">
         <v>24</v>
@@ -7810,7 +8103,7 @@
       </c>
       <c r="N146" s="16" t="str">
         <f aca="false">N145</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O146" s="9"/>
       <c r="XEX146" s="4"/>
@@ -7845,7 +8138,7 @@
       </c>
       <c r="K147" s="17" t="str">
         <f aca="false">K146</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L147" s="16" t="s">
         <v>24</v>
@@ -7855,7 +8148,7 @@
       </c>
       <c r="N147" s="16" t="str">
         <f aca="false">N146</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O147" s="9"/>
       <c r="XEX147" s="4"/>
@@ -7890,7 +8183,7 @@
       </c>
       <c r="K148" s="17" t="str">
         <f aca="false">K147</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L148" s="16" t="s">
         <v>24</v>
@@ -7900,7 +8193,7 @@
       </c>
       <c r="N148" s="16" t="str">
         <f aca="false">N147</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O148" s="9"/>
       <c r="XEX148" s="4"/>
@@ -7935,7 +8228,7 @@
       </c>
       <c r="K149" s="17" t="str">
         <f aca="false">K148</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L149" s="16" t="s">
         <v>24</v>
@@ -7945,7 +8238,7 @@
       </c>
       <c r="N149" s="16" t="str">
         <f aca="false">N148</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O149" s="9"/>
       <c r="XEX149" s="4"/>
@@ -7980,7 +8273,7 @@
       </c>
       <c r="K150" s="17" t="str">
         <f aca="false">K149</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L150" s="16" t="s">
         <v>24</v>
@@ -7990,7 +8283,7 @@
       </c>
       <c r="N150" s="16" t="str">
         <f aca="false">N149</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O150" s="9"/>
       <c r="XEX150" s="4"/>
@@ -8025,7 +8318,7 @@
       </c>
       <c r="K151" s="17" t="str">
         <f aca="false">K150</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L151" s="16" t="s">
         <v>24</v>
@@ -8035,7 +8328,7 @@
       </c>
       <c r="N151" s="16" t="str">
         <f aca="false">N150</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O151" s="9"/>
       <c r="XEX151" s="4"/>
@@ -8070,7 +8363,7 @@
       </c>
       <c r="K152" s="17" t="str">
         <f aca="false">K151</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L152" s="16" t="s">
         <v>24</v>
@@ -8080,7 +8373,7 @@
       </c>
       <c r="N152" s="16" t="str">
         <f aca="false">N151</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O152" s="9"/>
       <c r="XEX152" s="4"/>
@@ -8115,7 +8408,7 @@
       </c>
       <c r="K153" s="17" t="str">
         <f aca="false">K152</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L153" s="16" t="s">
         <v>24</v>
@@ -8125,7 +8418,7 @@
       </c>
       <c r="N153" s="16" t="str">
         <f aca="false">N152</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O153" s="9"/>
       <c r="XEX153" s="4"/>
@@ -8160,7 +8453,7 @@
       </c>
       <c r="K154" s="17" t="str">
         <f aca="false">K153</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L154" s="16" t="s">
         <v>24</v>
@@ -8170,7 +8463,7 @@
       </c>
       <c r="N154" s="16" t="str">
         <f aca="false">N153</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O154" s="9"/>
       <c r="XEX154" s="4"/>
@@ -8205,7 +8498,7 @@
       </c>
       <c r="K155" s="17" t="str">
         <f aca="false">K154</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L155" s="16" t="s">
         <v>24</v>
@@ -8215,7 +8508,7 @@
       </c>
       <c r="N155" s="16" t="str">
         <f aca="false">N154</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O155" s="9"/>
       <c r="XEX155" s="4"/>
@@ -8250,7 +8543,7 @@
       </c>
       <c r="K156" s="17" t="str">
         <f aca="false">K155</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L156" s="16" t="s">
         <v>24</v>
@@ -8260,7 +8553,7 @@
       </c>
       <c r="N156" s="16" t="str">
         <f aca="false">N155</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O156" s="9"/>
       <c r="XEX156" s="4"/>
@@ -8295,7 +8588,7 @@
       </c>
       <c r="K157" s="17" t="str">
         <f aca="false">K156</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L157" s="16" t="s">
         <v>24</v>
@@ -8305,7 +8598,7 @@
       </c>
       <c r="N157" s="16" t="str">
         <f aca="false">N156</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O157" s="9"/>
       <c r="XEX157" s="4"/>
@@ -8340,7 +8633,7 @@
       </c>
       <c r="K158" s="17" t="str">
         <f aca="false">K157</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L158" s="16" t="s">
         <v>24</v>
@@ -8350,7 +8643,7 @@
       </c>
       <c r="N158" s="16" t="str">
         <f aca="false">N157</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O158" s="9"/>
       <c r="XEX158" s="4"/>
@@ -8385,7 +8678,7 @@
       </c>
       <c r="K159" s="17" t="str">
         <f aca="false">K158</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L159" s="16" t="s">
         <v>24</v>
@@ -8395,7 +8688,7 @@
       </c>
       <c r="N159" s="16" t="str">
         <f aca="false">N158</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O159" s="9"/>
       <c r="XEX159" s="4"/>
@@ -8430,7 +8723,7 @@
       </c>
       <c r="K160" s="17" t="str">
         <f aca="false">K159</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L160" s="16" t="s">
         <v>24</v>
@@ -8440,7 +8733,7 @@
       </c>
       <c r="N160" s="16" t="str">
         <f aca="false">N159</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O160" s="9"/>
       <c r="XEX160" s="4"/>
@@ -8475,7 +8768,7 @@
       </c>
       <c r="K161" s="17" t="str">
         <f aca="false">K160</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L161" s="16" t="s">
         <v>24</v>
@@ -8485,7 +8778,7 @@
       </c>
       <c r="N161" s="16" t="str">
         <f aca="false">N160</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O161" s="9"/>
       <c r="XEX161" s="4"/>
@@ -8520,7 +8813,7 @@
       </c>
       <c r="K162" s="17" t="str">
         <f aca="false">K161</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L162" s="16" t="s">
         <v>24</v>
@@ -8530,7 +8823,7 @@
       </c>
       <c r="N162" s="16" t="str">
         <f aca="false">N161</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O162" s="9"/>
       <c r="XEX162" s="4"/>
@@ -8565,7 +8858,7 @@
       </c>
       <c r="K163" s="17" t="str">
         <f aca="false">K162</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L163" s="16" t="s">
         <v>24</v>
@@ -8575,7 +8868,7 @@
       </c>
       <c r="N163" s="16" t="str">
         <f aca="false">N162</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O163" s="9"/>
       <c r="XEX163" s="4"/>
@@ -8610,7 +8903,7 @@
       </c>
       <c r="K164" s="17" t="str">
         <f aca="false">K163</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L164" s="16" t="s">
         <v>24</v>
@@ -8620,7 +8913,7 @@
       </c>
       <c r="N164" s="16" t="str">
         <f aca="false">N163</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O164" s="9"/>
       <c r="XEX164" s="4"/>
@@ -8655,7 +8948,7 @@
       </c>
       <c r="K165" s="17" t="str">
         <f aca="false">K164</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L165" s="16" t="s">
         <v>24</v>
@@ -8665,7 +8958,7 @@
       </c>
       <c r="N165" s="16" t="str">
         <f aca="false">N164</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O165" s="9"/>
       <c r="XEX165" s="4"/>
@@ -8700,7 +8993,7 @@
       </c>
       <c r="K166" s="17" t="str">
         <f aca="false">K165</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L166" s="16" t="s">
         <v>24</v>
@@ -8710,7 +9003,7 @@
       </c>
       <c r="N166" s="16" t="str">
         <f aca="false">N165</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O166" s="9"/>
       <c r="XEX166" s="4"/>
@@ -8745,7 +9038,7 @@
       </c>
       <c r="K167" s="17" t="str">
         <f aca="false">K166</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L167" s="16" t="s">
         <v>24</v>
@@ -8755,7 +9048,7 @@
       </c>
       <c r="N167" s="16" t="str">
         <f aca="false">N166</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O167" s="9"/>
       <c r="XEX167" s="4"/>
@@ -8790,7 +9083,7 @@
       </c>
       <c r="K168" s="17" t="str">
         <f aca="false">K167</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L168" s="16" t="s">
         <v>24</v>
@@ -8800,7 +9093,7 @@
       </c>
       <c r="N168" s="16" t="str">
         <f aca="false">N167</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O168" s="9"/>
       <c r="XEX168" s="4"/>
@@ -8835,7 +9128,7 @@
       </c>
       <c r="K169" s="17" t="str">
         <f aca="false">K168</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L169" s="16" t="s">
         <v>24</v>
@@ -8845,7 +9138,7 @@
       </c>
       <c r="N169" s="16" t="str">
         <f aca="false">N168</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O169" s="9"/>
       <c r="XEX169" s="4"/>
@@ -8880,7 +9173,7 @@
       </c>
       <c r="K170" s="17" t="str">
         <f aca="false">K169</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L170" s="16" t="s">
         <v>24</v>
@@ -8890,7 +9183,7 @@
       </c>
       <c r="N170" s="16" t="str">
         <f aca="false">N169</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O170" s="9"/>
       <c r="XEX170" s="4"/>
@@ -8925,7 +9218,7 @@
       </c>
       <c r="K171" s="17" t="str">
         <f aca="false">K170</f>
-        <v>addSubMenu</v>
+        <v>addSubMenuForCoalition</v>
       </c>
       <c r="L171" s="16" t="s">
         <v>24</v>
@@ -8935,7 +9228,7 @@
       </c>
       <c r="N171" s="16" t="str">
         <f aca="false">N170</f>
-        <v/>
+        <v>coalition.side.BLUE,</v>
       </c>
       <c r="O171" s="9"/>
       <c r="XEX171" s="4"/>
